--- a/Planejamento/Documentos Adicionais/Matriz de Papéis e Responsabilidades.xlsx
+++ b/Planejamento/Documentos Adicionais/Matriz de Papéis e Responsabilidades.xlsx
@@ -134,7 +134,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -206,26 +205,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -285,8 +264,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,55 +284,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,16 +353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1739900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3086100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3111500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -388,7 +385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10731500" y="101600"/>
+          <a:off x="10909300" y="165100"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -723,155 +720,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="2" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="82" customWidth="1"/>
+    <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="11" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="56" customHeight="1">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="64" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="56" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="56" customHeight="1"/>
-    <row r="4" spans="1:4" ht="38" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="36" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="38" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="165">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:5" ht="165">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:5" ht="90">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:5" ht="75">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:5" ht="45">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:5" ht="45">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:5" ht="45">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:5" ht="45">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:XFD3"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Planejamento/Documentos Adicionais/Matriz de Papéis e Responsabilidades.xlsx
+++ b/Planejamento/Documentos Adicionais/Matriz de Papéis e Responsabilidades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="11040" yWindow="0" windowWidth="25605" windowHeight="18375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +305,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,34 +327,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -722,50 +735,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="82" customWidth="1"/>
     <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="11" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="56" customHeight="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="56.1" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="56" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="56.1" customHeight="1">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="38" customHeight="1">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.1" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,11 +792,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="165">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:5" ht="173.25">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -793,11 +806,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:5" ht="94.5">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -807,11 +820,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:5" ht="78.75">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -821,11 +834,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:5" ht="47.25">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -835,11 +848,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:5" ht="47.25">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -849,11 +862,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:5" ht="47.25">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -863,11 +876,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:5" ht="47.25">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
